--- a/doc/SUZB3cg_5anos.xlsx
+++ b/doc/SUZB3cg_5anos.xlsx
@@ -320,6 +320,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7805,6 +7808,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/SUZB3cg_5anos.xlsx
+++ b/doc/SUZB3cg_5anos.xlsx
@@ -328,9 +328,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$1244</c:f>
+              <c:f>Retornos!$D$2:$D$1243</c:f>
               <c:strCache>
-                <c:ptCount val="1243"/>
+                <c:ptCount val="1242"/>
                 <c:pt idx="0">
                   <c:v>08/2024</c:v>
                 </c:pt>
@@ -4055,9 +4055,6 @@
                   <c:v>09/2019</c:v>
                 </c:pt>
                 <c:pt idx="1241">
-                  <c:v>08/2019</c:v>
-                </c:pt>
-                <c:pt idx="1242">
                   <c:v>08/2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -4065,10 +4062,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$1244</c:f>
+              <c:f>Retornos!$B$2:$B$1243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1243"/>
+                <c:ptCount val="1242"/>
                 <c:pt idx="0">
                   <c:v>-0.008202567760342339</c:v>
                 </c:pt>
@@ -7794,9 +7791,6 @@
                 </c:pt>
                 <c:pt idx="1241">
                   <c:v>-0.002059025394646641</c:v>
-                </c:pt>
-                <c:pt idx="1242">
-                  <c:v>-0.002751031636863743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7816,9 +7810,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$1244</c:f>
+              <c:f>Retornos!$D$2:$D$1243</c:f>
               <c:strCache>
-                <c:ptCount val="1243"/>
+                <c:ptCount val="1242"/>
                 <c:pt idx="0">
                   <c:v>08/2024</c:v>
                 </c:pt>
@@ -11543,9 +11537,6 @@
                   <c:v>09/2019</c:v>
                 </c:pt>
                 <c:pt idx="1241">
-                  <c:v>08/2019</c:v>
-                </c:pt>
-                <c:pt idx="1242">
                   <c:v>08/2019</c:v>
                 </c:pt>
               </c:strCache>
@@ -11553,10 +11544,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$1244</c:f>
+              <c:f>Retornos!$C$2:$C$1243</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1243"/>
+                <c:ptCount val="1242"/>
                 <c:pt idx="0">
                   <c:v>-0.000825486342949433</c:v>
                 </c:pt>
@@ -15282,9 +15273,6 @@
                 </c:pt>
                 <c:pt idx="1241">
                   <c:v>0.006078150491424905</c:v>
-                </c:pt>
-                <c:pt idx="1242">
-                  <c:v>0.02372853738517633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15696,6 +15684,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -33123,6 +33116,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
